--- a/src/main/processing/Any2Json/examples/ReadDocuments/data/1612/부산그린팜.xlsx
+++ b/src/main/processing/Any2Json/examples/ReadDocuments/data/1612/부산그린팜.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\5 re-sales data\1617\1612\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Projects\Any2Json\src\main\processing\Any2Json\examples\ReadDocuments\data\1612\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606B5CA0-1E54-4373-89FE-9E68BD06E26B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>제조사</t>
   </si>
@@ -123,24 +124,27 @@
   </si>
   <si>
     <t>아서틸정 4mg(PTP)/90정</t>
+  </si>
+  <si>
+    <t>매출일자</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -271,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,25 +519,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,8 +556,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +584,7 @@
       </c>
       <c r="AM2"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -567,7 +608,7 @@
       </c>
       <c r="AM3"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -591,7 +632,7 @@
       </c>
       <c r="AM4"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -615,7 +656,7 @@
       </c>
       <c r="AM5"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -639,7 +680,7 @@
       </c>
       <c r="AM6"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -663,7 +704,7 @@
       </c>
       <c r="AM7"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -687,7 +728,7 @@
       </c>
       <c r="AM8"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -711,7 +752,7 @@
       </c>
       <c r="AM9"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -735,7 +776,7 @@
       </c>
       <c r="AM10"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -759,7 +800,7 @@
       </c>
       <c r="AM11"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -783,7 +824,7 @@
       </c>
       <c r="AM12"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -807,7 +848,7 @@
       </c>
       <c r="AM13"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -831,7 +872,7 @@
       </c>
       <c r="AM14"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -855,7 +896,7 @@
       </c>
       <c r="AM15"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -879,7 +920,7 @@
       </c>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -903,7 +944,7 @@
       </c>
       <c r="AM17"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -935,12 +976,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,12 +989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
